--- a/AssetsPath.xlsx
+++ b/AssetsPath.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="912">
   <si>
     <t>Avatar资源</t>
   </si>
@@ -783,6 +783,48 @@
     <t>岛屿晨曦套装女性下半身-3P</t>
   </si>
   <si>
+    <t>竹外桃花套装</t>
+  </si>
+  <si>
+    <t>042\female_042_head.prefab</t>
+  </si>
+  <si>
+    <t>竹外桃花套装女性头部-1P</t>
+  </si>
+  <si>
+    <t>042\female_042_head_3p.prefab</t>
+  </si>
+  <si>
+    <t>竹外桃花套装女性头部-3P</t>
+  </si>
+  <si>
+    <t>042\female_042_arm_1p.prefab</t>
+  </si>
+  <si>
+    <t>竹外桃花套装女性手臂-1P</t>
+  </si>
+  <si>
+    <t>042\female_042_upperbody.prefab</t>
+  </si>
+  <si>
+    <t>竹外桃花套装女性上半身-1P</t>
+  </si>
+  <si>
+    <t>042\female_042_upperbody_3p.prefab</t>
+  </si>
+  <si>
+    <t>竹外桃花套装女性上半身-3P</t>
+  </si>
+  <si>
+    <t>042\female_042_lowerbody.prefab</t>
+  </si>
+  <si>
+    <t>竹外桃花套装女性下半身-1P</t>
+  </si>
+  <si>
+    <t>042\female_042_lowerbody_3p.prefab</t>
+  </si>
+  <si>
     <t>男性</t>
   </si>
   <si>
@@ -1491,6 +1533,45 @@
     <t>岛屿晨曦套装男性下半身-3P</t>
   </si>
   <si>
+    <t>042\male_042_head.prefab</t>
+  </si>
+  <si>
+    <t>竹外桃花套装男性头部-1P</t>
+  </si>
+  <si>
+    <t>042\male_042_head_3p.prefab</t>
+  </si>
+  <si>
+    <t>竹外桃花套装男性头部-3P</t>
+  </si>
+  <si>
+    <t>042\male_042_arm_1p.prefab</t>
+  </si>
+  <si>
+    <t>竹外桃花套装男性手臂-1P</t>
+  </si>
+  <si>
+    <t>042\male_042_upperbody.prefab</t>
+  </si>
+  <si>
+    <t>竹外桃花套装男性上半身-1P</t>
+  </si>
+  <si>
+    <t>042\male_042_upperbody_3p.prefab</t>
+  </si>
+  <si>
+    <t>竹外桃花套装男性上半身-3P</t>
+  </si>
+  <si>
+    <t>042\male_042_lowerbody.prefab</t>
+  </si>
+  <si>
+    <t>竹外桃花套装男性下半身-1P</t>
+  </si>
+  <si>
+    <t>042\male_042_lowerbody_3p.prefab</t>
+  </si>
+  <si>
     <t>钓竿</t>
   </si>
   <si>
@@ -1506,13 +1587,148 @@
     <t>rod_rare_010\rod_rare_010.prefab</t>
   </si>
   <si>
+    <t>夜光曲鱼竿</t>
+  </si>
+  <si>
+    <t>rod_rare_011\rod_rare_011.prefab</t>
+  </si>
+  <si>
+    <t>乐控鱼竿</t>
+  </si>
+  <si>
+    <t>rod_rare_012\rod_rare_012.prefab</t>
+  </si>
+  <si>
+    <t>魔多1820鱼竿</t>
+  </si>
+  <si>
+    <t>rod_rare_013\rod_rare_013.prefab</t>
+  </si>
+  <si>
+    <t>卓越2号鱼竿</t>
+  </si>
+  <si>
+    <t>rod_rare_014\rod_rare_014.prefab</t>
+  </si>
+  <si>
+    <t>小精灵鱼竿</t>
+  </si>
+  <si>
+    <t>rod_rare_015\rod_rare_015.prefab</t>
+  </si>
+  <si>
+    <t>蓝鸟鱼竿</t>
+  </si>
+  <si>
+    <t>rod_rare_016\rod_rare_016.prefab</t>
+  </si>
+  <si>
+    <t>珊瑚一号鱼竿</t>
+  </si>
+  <si>
+    <t>rod_rare_017\rod_rare_017.prefab</t>
+  </si>
+  <si>
+    <t>美人鱼鱼竿</t>
+  </si>
+  <si>
+    <t>rod_rare_018\rod_rare_018.prefab</t>
+  </si>
+  <si>
+    <t>溪流小霸王鱼竿</t>
+  </si>
+  <si>
+    <t>rod_rare_019\rod_rare_019.prefab</t>
+  </si>
+  <si>
+    <t>探险者鱼竿</t>
+  </si>
+  <si>
+    <t>rod_rare_020\rod_rare_020.prefab</t>
+  </si>
+  <si>
+    <t>新主线鱼竿</t>
+  </si>
+  <si>
+    <t>史诗鱼竿</t>
+  </si>
+  <si>
+    <t>rod_epic_010\rod_epic_010.prefab</t>
+  </si>
+  <si>
+    <t>光轮3000鱼竿</t>
+  </si>
+  <si>
+    <t>rod_epic_011\rod_epic_011.prefab</t>
+  </si>
+  <si>
+    <t>狙击手鱼竿</t>
+  </si>
+  <si>
+    <t>rod_epic_012\rod_epic_012.prefab</t>
+  </si>
+  <si>
+    <t>钓轻松鱼竿</t>
+  </si>
+  <si>
+    <t>rod_epic_013\rod_epic_013.prefab</t>
+  </si>
+  <si>
+    <t>乐逍遥鱼竿</t>
+  </si>
+  <si>
+    <t>rod_epic_014\rod_epic_014.prefab</t>
+  </si>
+  <si>
+    <t>孤勇者鱼竿</t>
+  </si>
+  <si>
+    <t>rod_epic_015\rod_epic_015.prefab</t>
+  </si>
+  <si>
+    <t>幻境鱼竿</t>
+  </si>
+  <si>
+    <t>rod_epic_016\rod_epic_016.prefab</t>
+  </si>
+  <si>
+    <t>幻刃鱼竿</t>
+  </si>
+  <si>
+    <t>rod_epic_017\rod_epic_017.prefab</t>
+  </si>
+  <si>
+    <t>伯爵炫鱼竿</t>
+  </si>
+  <si>
+    <t>rod_epic_018\rod_epic_018.prefab</t>
+  </si>
+  <si>
+    <t>天际线鱼竿</t>
+  </si>
+  <si>
+    <t>rod_epic_019\rod_epic_019.prefab</t>
+  </si>
+  <si>
+    <t>琥珀鱼竿</t>
+  </si>
+  <si>
+    <t>rod_epic_020\rod_epic_020.prefab</t>
+  </si>
+  <si>
     <t>XXX鱼竿</t>
   </si>
   <si>
-    <t>史诗鱼竿</t>
-  </si>
-  <si>
-    <t>rod_epic_010\rod_epic_010.prefab</t>
+    <t>rod_epic_021\rod_epic_021.prefab</t>
+  </si>
+  <si>
+    <t>rod_epic_022\rod_epic_022.prefab</t>
+  </si>
+  <si>
+    <t>rod_epic_023\rod_epic_023.prefab</t>
+  </si>
+  <si>
+    <t>rod_epic_024\rod_epic_024.prefab</t>
   </si>
   <si>
     <t>传奇鱼竿</t>
@@ -1521,6 +1737,201 @@
     <t>rod_legendary_010\rod_legendary_010.prefab</t>
   </si>
   <si>
+    <t>维纳斯鱼竿</t>
+  </si>
+  <si>
+    <t>rod_legendary_010_B09\rod_legendary_010_B09.prefab</t>
+  </si>
+  <si>
+    <t>维纳斯-福禄宝杖鱼竿皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_010_B10\rod_legendary_010_B10.prefab</t>
+  </si>
+  <si>
+    <t>维纳斯-武士刀鱼竿皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_011\rod_legendary_011.prefab</t>
+  </si>
+  <si>
+    <t>灵眸一号鱼竿</t>
+  </si>
+  <si>
+    <t>rod_legendary_012\rod_legendary_012.prefab</t>
+  </si>
+  <si>
+    <t>波塞冬鱼竿</t>
+  </si>
+  <si>
+    <t>rod_legendary_012_B12\rod_legendary_012_B12.prefab</t>
+  </si>
+  <si>
+    <t>波塞冬-冬日盛宴鱼竿</t>
+  </si>
+  <si>
+    <t>rod_legendary_013\rod_legendary_013.prefab</t>
+  </si>
+  <si>
+    <t>王者归来鱼竿</t>
+  </si>
+  <si>
+    <t>rod_legendary_013_B08\rod_legendary_013_B08.prefab</t>
+  </si>
+  <si>
+    <t>王者归来-未上线的皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_014\rod_legendary_014.prefab</t>
+  </si>
+  <si>
+    <t>皇冠典藏鱼竿</t>
+  </si>
+  <si>
+    <t>rod_legendary_015\rod_legendary_015.prefab</t>
+  </si>
+  <si>
+    <t>无限帆鱼竿</t>
+  </si>
+  <si>
+    <t>rod_legendary_015_B03\rod_legendary_015_B03.prefab</t>
+  </si>
+  <si>
+    <t>无限帆-深渊巨鳄皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_016\rod_legendary_016.prefab</t>
+  </si>
+  <si>
+    <t>王者大物鱼竿</t>
+  </si>
+  <si>
+    <t>rod_legendary_016_B05\rod_legendary_016_B05.prefab</t>
+  </si>
+  <si>
+    <t>王者大物-荣耀铁塔皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_017\rod_legendary_017.prefab</t>
+  </si>
+  <si>
+    <t>奇妙幻境鱼竿</t>
+  </si>
+  <si>
+    <t>rod_legendary_017_B06\rod_legendary_017_B06.prefab</t>
+  </si>
+  <si>
+    <t>奇妙幻境-爱心狙击皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_018\rod_legendary_018.prefab</t>
+  </si>
+  <si>
+    <t>冠军一号鱼竿</t>
+  </si>
+  <si>
+    <t>rod_legendary_018_B07\rod_legendary_018_B07.prefab</t>
+  </si>
+  <si>
+    <t>冠军一号-胡狼神皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_019\rod_legendary_019.prefab</t>
+  </si>
+  <si>
+    <t>晚秋鱼竿</t>
+  </si>
+  <si>
+    <t>rod_legendary_020\rod_legendary_020.prefab</t>
+  </si>
+  <si>
+    <t>波塞冬-星芒青皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_021\rod_legendary_021.prefab</t>
+  </si>
+  <si>
+    <t>XXXX鱼竿</t>
+  </si>
+  <si>
+    <t>rod_legendary_022\rod_legendary_022.prefab</t>
+  </si>
+  <si>
+    <t>rod_legendary_023\rod_legendary_023.prefab</t>
+  </si>
+  <si>
+    <t>无限帆-银色闪光皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_024\rod_legendary_024.prefab</t>
+  </si>
+  <si>
+    <t>王者大物-璧琉璃皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_025\rod_legendary_025.prefab</t>
+  </si>
+  <si>
+    <t>奇妙幻境-海天云境皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_026\rod_legendary_026.prefab</t>
+  </si>
+  <si>
+    <t>rod_legendary_027\rod_legendary_027.prefab</t>
+  </si>
+  <si>
+    <t>冠军一号-炽焰橘皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_028\rod_legendary_028.prefab</t>
+  </si>
+  <si>
+    <t>rod_legendary_029\rod_legendary_029.prefab</t>
+  </si>
+  <si>
+    <t>灵眸一号-盛夏派对皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_030\rod_legendary_030.prefab</t>
+  </si>
+  <si>
+    <t>晚秋-秋日果实皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_031\rod_legendary_031.prefab</t>
+  </si>
+  <si>
+    <t>rod_legendary_032\rod_legendary_032.prefab</t>
+  </si>
+  <si>
+    <t>XXXX鱼竿</t>
+  </si>
+  <si>
+    <t>rod_legendary_033\rod_legendary_033.prefab</t>
+  </si>
+  <si>
+    <t>rod_legendary_034\rod_legendary_034.prefab</t>
+  </si>
+  <si>
+    <t>王者归来-醉落樱雪皮肤</t>
+  </si>
+  <si>
+    <t>rod_legendary_035\rod_legendary_035.prefab</t>
+  </si>
+  <si>
+    <t>rod_legendary_037\rod_legendary_037.prefab</t>
+  </si>
+  <si>
+    <t>空文件夹鱼竿</t>
+  </si>
+  <si>
+    <t>rod_legendary_039\rod_legendary_039.prefab</t>
+  </si>
+  <si>
+    <t>蛇竿皮肤</t>
+  </si>
+  <si>
     <t>挂件</t>
   </si>
   <si>
@@ -1533,7 +1944,61 @@
     <t>outward_ornament_epic_001\outward_ornament_epic_001.prefab</t>
   </si>
   <si>
-    <t>XXX挂件</t>
+    <t>炽红之心挂件</t>
+  </si>
+  <si>
+    <t>outward_ornament_epic_002\outward_ornament_epic_002.prefab</t>
+  </si>
+  <si>
+    <t>樱飘小雪挂件</t>
+  </si>
+  <si>
+    <t>outward_ornament_epic_003\outward_ornament_epic_003.prefab</t>
+  </si>
+  <si>
+    <t>懒懒八爪鱼挂件</t>
+  </si>
+  <si>
+    <t>outward_ornament_epic_004\outward_ornament_epic_004.prefab</t>
+  </si>
+  <si>
+    <t>巴黎之风挂件</t>
+  </si>
+  <si>
+    <t>outward_ornament_epic_005\outward_ornament_epic_005.prefab</t>
+  </si>
+  <si>
+    <t>机械飞鱼挂件</t>
+  </si>
+  <si>
+    <t>outward_ornament_epic_006\outward_ornament_epic_006.prefab</t>
+  </si>
+  <si>
+    <t>还未出的XXX挂件</t>
+  </si>
+  <si>
+    <t>outward_ornament_epic_007\outward_ornament_epic_007.prefab</t>
+  </si>
+  <si>
+    <t>outward_ornament_epic_008\outward_ornament_epic_008.prefab</t>
+  </si>
+  <si>
+    <t>outward_ornament_epic_009\outward_ornament_epic_009.prefab</t>
+  </si>
+  <si>
+    <t>outward_ornament_epic_010\outward_ornament_epic_010.prefab</t>
+  </si>
+  <si>
+    <t>天才钓鱼郎挂件</t>
+  </si>
+  <si>
+    <t>outward_ornament_epic_012\outward_ornament_epic_012.prefab</t>
+  </si>
+  <si>
+    <t>胡子精灵挂件</t>
+  </si>
+  <si>
+    <t>outward_ornament_epic_013\outward_ornament_epic_013.prefab</t>
   </si>
   <si>
     <t>传奇挂件</t>
@@ -1542,6 +2007,18 @@
     <t>outward_ornament_legendary_001\outward_ornament_legendary_001.prefab</t>
   </si>
   <si>
+    <t>觅心之镜挂件</t>
+  </si>
+  <si>
+    <t>outward_ornament_legendary_002\outward_ornament_legendary_002.prefab</t>
+  </si>
+  <si>
+    <t>outward_ornament_legendary_003\outward_ornament_legendary_003.prefab</t>
+  </si>
+  <si>
+    <t>齿轮猎手挂件</t>
+  </si>
+  <si>
     <t>各渔场钓鱼场景</t>
   </si>
   <si>
@@ -2137,6 +2614,12 @@
   </si>
   <si>
     <t>乌苏里江渔场双周活动时期钓点</t>
+  </si>
+  <si>
+    <t>B10_Event.unity</t>
+  </si>
+  <si>
+    <t>洪湖新年渔场双周活动时期钓点</t>
   </si>
   <si>
     <t>H02_Aquarium.unity</t>
@@ -2278,7 +2761,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2293,6 +2776,11 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2322,11 +2810,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2658,10 +3149,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:G453"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="I318" sqref="I318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2673,38 +3164,38 @@
     <col min="5" max="6" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2717,11 +3208,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2729,11 +3220,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2741,13 +3232,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2760,11 +3251,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2772,11 +3263,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2784,13 +3275,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2803,11 +3294,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2815,11 +3306,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2827,13 +3318,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2846,11 +3337,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
@@ -2858,11 +3349,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
@@ -2870,13 +3361,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2889,11 +3380,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2901,11 +3392,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
@@ -2913,13 +3404,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2" t="s">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2932,11 +3423,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="1" t="s">
         <v>37</v>
       </c>
@@ -2944,11 +3435,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="1" t="s">
         <v>39</v>
       </c>
@@ -2956,13 +3447,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2975,11 +3466,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2987,11 +3478,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="1" t="s">
         <v>45</v>
       </c>
@@ -2999,13 +3490,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2" t="s">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3018,11 +3509,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="1" t="s">
         <v>49</v>
       </c>
@@ -3030,11 +3521,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="1" t="s">
         <v>51</v>
       </c>
@@ -3042,13 +3533,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2" t="s">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3061,11 +3552,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="1" t="s">
         <v>55</v>
       </c>
@@ -3073,11 +3564,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="1" t="s">
         <v>57</v>
       </c>
@@ -3085,13 +3576,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2" t="s">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -3104,11 +3595,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="1" t="s">
         <v>61</v>
       </c>
@@ -3116,11 +3607,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="1" t="s">
         <v>63</v>
       </c>
@@ -3128,11 +3619,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="1" t="s">
         <v>65</v>
       </c>
@@ -3140,11 +3631,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="1" t="s">
         <v>67</v>
       </c>
@@ -3152,11 +3643,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="1" t="s">
         <v>69</v>
       </c>
@@ -3164,11 +3655,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="1" t="s">
         <v>71</v>
       </c>
@@ -3176,13 +3667,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="2" t="s">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -3195,11 +3686,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,11 +3698,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="1" t="s">
         <v>78</v>
       </c>
@@ -3219,11 +3710,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="1" t="s">
         <v>80</v>
       </c>
@@ -3231,11 +3722,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,11 +3734,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="1" t="s">
         <v>84</v>
       </c>
@@ -3255,11 +3746,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="1" t="s">
         <v>86</v>
       </c>
@@ -3267,11 +3758,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="1" t="s">
         <v>88</v>
       </c>
@@ -3279,13 +3770,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="2" t="s">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -3298,11 +3789,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="1" t="s">
         <v>93</v>
       </c>
@@ -3310,11 +3801,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="1" t="s">
         <v>95</v>
       </c>
@@ -3322,11 +3813,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="1" t="s">
         <v>97</v>
       </c>
@@ -3334,11 +3825,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="1" t="s">
         <v>99</v>
       </c>
@@ -3346,11 +3837,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="1" t="s">
         <v>101</v>
       </c>
@@ -3358,11 +3849,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="1" t="s">
         <v>103</v>
       </c>
@@ -3370,13 +3861,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="2" t="s">
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -3389,11 +3880,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="1" t="s">
         <v>108</v>
       </c>
@@ -3401,11 +3892,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="1" t="s">
         <v>110</v>
       </c>
@@ -3413,11 +3904,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="1" t="s">
         <v>112</v>
       </c>
@@ -3425,11 +3916,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="1" t="s">
         <v>114</v>
       </c>
@@ -3437,11 +3928,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="1" t="s">
         <v>116</v>
       </c>
@@ -3449,11 +3940,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="1" t="s">
         <v>118</v>
       </c>
@@ -3461,13 +3952,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="2" t="s">
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -3480,11 +3971,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="1" t="s">
         <v>123</v>
       </c>
@@ -3492,11 +3983,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="1" t="s">
         <v>125</v>
       </c>
@@ -3504,11 +3995,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="1" t="s">
         <v>127</v>
       </c>
@@ -3516,11 +4007,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="1" t="s">
         <v>129</v>
       </c>
@@ -3528,11 +4019,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="1" t="s">
         <v>131</v>
       </c>
@@ -3540,11 +4031,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="1" t="s">
         <v>133</v>
       </c>
@@ -3552,13 +4043,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="2" t="s">
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -3571,11 +4062,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="1" t="s">
         <v>138</v>
       </c>
@@ -3583,11 +4074,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="1" t="s">
         <v>140</v>
       </c>
@@ -3595,11 +4086,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="1" t="s">
         <v>142</v>
       </c>
@@ -3607,11 +4098,11 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="1" t="s">
         <v>144</v>
       </c>
@@ -3619,11 +4110,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="1" t="s">
         <v>146</v>
       </c>
@@ -3631,11 +4122,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="1" t="s">
         <v>148</v>
       </c>
@@ -3643,13 +4134,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="2" t="s">
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -3662,11 +4153,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="1" t="s">
         <v>153</v>
       </c>
@@ -3674,11 +4165,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="1" t="s">
         <v>155</v>
       </c>
@@ -3686,11 +4177,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="1" t="s">
         <v>157</v>
       </c>
@@ -3698,11 +4189,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="1" t="s">
         <v>159</v>
       </c>
@@ -3710,11 +4201,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="1" t="s">
         <v>161</v>
       </c>
@@ -3722,11 +4213,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
       <c r="E78" s="1" t="s">
         <v>163</v>
       </c>
@@ -3734,13 +4225,13 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="2" t="s">
+    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -3753,11 +4244,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="1" t="s">
         <v>168</v>
       </c>
@@ -3765,11 +4256,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
       <c r="E81" s="1" t="s">
         <v>170</v>
       </c>
@@ -3777,11 +4268,11 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
       <c r="E82" s="1" t="s">
         <v>172</v>
       </c>
@@ -3789,11 +4280,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
       <c r="E83" s="1" t="s">
         <v>174</v>
       </c>
@@ -3801,11 +4292,11 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
       <c r="E84" s="1" t="s">
         <v>176</v>
       </c>
@@ -3813,11 +4304,11 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
       <c r="E85" s="1" t="s">
         <v>178</v>
       </c>
@@ -3825,13 +4316,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="2" t="s">
+    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -3841,11 +4332,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
       <c r="E87" s="1" t="s">
         <v>183</v>
       </c>
@@ -3853,11 +4344,11 @@
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
       <c r="E88" s="1" t="s">
         <v>185</v>
       </c>
@@ -3868,11 +4359,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
       <c r="E89" s="1" t="s">
         <v>187</v>
       </c>
@@ -3880,11 +4371,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
       <c r="E90" s="1" t="s">
         <v>189</v>
       </c>
@@ -3892,11 +4383,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
+    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
       <c r="E91" s="1" t="s">
         <v>191</v>
       </c>
@@ -3904,11 +4395,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
       <c r="E92" s="1" t="s">
         <v>193</v>
       </c>
@@ -3916,11 +4407,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
       <c r="E93" s="1" t="s">
         <v>195</v>
       </c>
@@ -3928,11 +4419,11 @@
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
+    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
       <c r="E94" s="1" t="s">
         <v>197</v>
       </c>
@@ -3940,13 +4431,13 @@
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="2" t="s">
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -3956,11 +4447,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
+    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
       <c r="E96" s="1" t="s">
         <v>202</v>
       </c>
@@ -3968,11 +4459,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
       <c r="E97" s="1" t="s">
         <v>204</v>
       </c>
@@ -3980,11 +4471,11 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
       <c r="E98" s="1" t="s">
         <v>206</v>
       </c>
@@ -3995,11 +4486,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
       <c r="E99" s="1" t="s">
         <v>208</v>
       </c>
@@ -4007,11 +4498,11 @@
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
+    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
       <c r="E100" s="1" t="s">
         <v>210</v>
       </c>
@@ -4019,11 +4510,11 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
+    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
       <c r="E101" s="1" t="s">
         <v>212</v>
       </c>
@@ -4031,11 +4522,11 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
+    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
       <c r="E102" s="1" t="s">
         <v>214</v>
       </c>
@@ -4043,11 +4534,11 @@
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
+    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
       <c r="E103" s="1" t="s">
         <v>216</v>
       </c>
@@ -4055,11 +4546,11 @@
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
+    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
       <c r="E104" s="1" t="s">
         <v>218</v>
       </c>
@@ -4067,13 +4558,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="2" t="s">
+    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -4086,11 +4577,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
+    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
       <c r="E106" s="1" t="s">
         <v>223</v>
       </c>
@@ -4098,11 +4589,11 @@
         <v>224</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
       <c r="E107" s="1" t="s">
         <v>225</v>
       </c>
@@ -4110,11 +4601,11 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
+    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
       <c r="E108" s="1" t="s">
         <v>227</v>
       </c>
@@ -4122,11 +4613,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
+    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
       <c r="E109" s="1" t="s">
         <v>229</v>
       </c>
@@ -4134,11 +4625,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
       <c r="E110" s="1" t="s">
         <v>231</v>
       </c>
@@ -4146,11 +4637,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
+    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
       <c r="E111" s="1" t="s">
         <v>233</v>
       </c>
@@ -4158,13 +4649,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="2" t="s">
+    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -4174,11 +4665,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
+    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
       <c r="E113" s="1" t="s">
         <v>238</v>
       </c>
@@ -4186,11 +4677,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
+    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
       <c r="E114" s="1" t="s">
         <v>240</v>
       </c>
@@ -4201,11 +4692,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
       <c r="E115" s="1" t="s">
         <v>242</v>
       </c>
@@ -4213,11 +4704,11 @@
         <v>243</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
       <c r="E116" s="1" t="s">
         <v>244</v>
       </c>
@@ -4225,11 +4716,11 @@
         <v>245</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
       <c r="E117" s="1" t="s">
         <v>246</v>
       </c>
@@ -4237,11 +4728,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
+    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
       <c r="E118" s="1" t="s">
         <v>248</v>
       </c>
@@ -4249,11 +4740,11 @@
         <v>249</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
+    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
       <c r="E119" s="1" t="s">
         <v>250</v>
       </c>
@@ -4261,11 +4752,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
+    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
       <c r="E120" s="1" t="s">
         <v>252</v>
       </c>
@@ -4273,32 +4764,30 @@
         <v>253</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="2" t="s">
+    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
+    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
       <c r="E122" s="1" t="s">
         <v>257</v>
       </c>
@@ -4306,11 +4795,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
+    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
       <c r="E123" s="1" t="s">
         <v>259</v>
       </c>
@@ -4318,422 +4807,424 @@
         <v>260</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>255</v>
-      </c>
+    <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
       <c r="E124" s="1" t="s">
         <v>261</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="D131" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="2" t="s">
+    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F127" s="1" t="s">
+      <c r="D134" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="1" t="s">
+    <row r="135" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="2" t="s">
+      <c r="E137" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G130" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="2" t="s">
+    <row r="138" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F133" s="1" t="s">
+      <c r="D140" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="2" t="s">
+    <row r="141" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F136" s="1" t="s">
+      <c r="D143" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="2" t="s">
+    <row r="144" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F139" s="1" t="s">
+      <c r="D146" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="2" t="s">
+    <row r="147" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F142" s="1" t="s">
+      <c r="D149" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="2" t="s">
+    <row r="150" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F145" s="1" t="s">
+      <c r="D152" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
+    <row r="153" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
       <c r="E153" s="1" t="s">
         <v>311</v>
       </c>
@@ -4741,11 +5232,11 @@
         <v>312</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
+    <row r="154" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
       <c r="E154" s="1" t="s">
         <v>313</v>
       </c>
@@ -4753,14 +5244,14 @@
         <v>314</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>255</v>
+    <row r="155" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>315</v>
@@ -4772,11 +5263,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
+    <row r="156" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
       <c r="E156" s="1" t="s">
         <v>317</v>
       </c>
@@ -4784,11 +5275,11 @@
         <v>318</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
+    <row r="157" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
       <c r="E157" s="1" t="s">
         <v>319</v>
       </c>
@@ -4796,11 +5287,11 @@
         <v>320</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
+    <row r="158" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
       <c r="E158" s="1" t="s">
         <v>321</v>
       </c>
@@ -4808,11 +5299,11 @@
         <v>322</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
+    <row r="159" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
       <c r="E159" s="1" t="s">
         <v>323</v>
       </c>
@@ -4820,11 +5311,11 @@
         <v>324</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
+    <row r="160" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
       <c r="E160" s="1" t="s">
         <v>325</v>
       </c>
@@ -4832,11 +5323,11 @@
         <v>326</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
+    <row r="161" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
       <c r="E161" s="1" t="s">
         <v>327</v>
       </c>
@@ -4844,14 +5335,14 @@
         <v>328</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>255</v>
+    <row r="162" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>329</v>
@@ -4863,11 +5354,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
+    <row r="163" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
       <c r="E163" s="1" t="s">
         <v>331</v>
       </c>
@@ -4875,11 +5366,11 @@
         <v>332</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
+    <row r="164" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
       <c r="E164" s="1" t="s">
         <v>333</v>
       </c>
@@ -4887,11 +5378,11 @@
         <v>334</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
+    <row r="165" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
       <c r="E165" s="1" t="s">
         <v>335</v>
       </c>
@@ -4899,11 +5390,11 @@
         <v>336</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
+    <row r="166" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
       <c r="E166" s="1" t="s">
         <v>337</v>
       </c>
@@ -4911,11 +5402,11 @@
         <v>338</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
+    <row r="167" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
       <c r="E167" s="1" t="s">
         <v>339</v>
       </c>
@@ -4923,11 +5414,11 @@
         <v>340</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
+    <row r="168" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
       <c r="E168" s="1" t="s">
         <v>341</v>
       </c>
@@ -4935,14 +5426,14 @@
         <v>342</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>255</v>
+    <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>343</v>
@@ -4954,11 +5445,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
+    <row r="170" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
       <c r="E170" s="1" t="s">
         <v>345</v>
       </c>
@@ -4966,11 +5457,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
+    <row r="171" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
       <c r="E171" s="1" t="s">
         <v>347</v>
       </c>
@@ -4978,11 +5469,11 @@
         <v>348</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
+    <row r="172" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
       <c r="E172" s="1" t="s">
         <v>349</v>
       </c>
@@ -4990,11 +5481,11 @@
         <v>350</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
+    <row r="173" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
       <c r="E173" s="1" t="s">
         <v>351</v>
       </c>
@@ -5002,11 +5493,11 @@
         <v>352</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
+    <row r="174" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
       <c r="E174" s="1" t="s">
         <v>353</v>
       </c>
@@ -5014,11 +5505,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
+    <row r="175" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
       <c r="E175" s="1" t="s">
         <v>355</v>
       </c>
@@ -5026,14 +5517,14 @@
         <v>356</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>255</v>
+    <row r="176" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>357</v>
@@ -5045,11 +5536,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
+    <row r="177" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
       <c r="E177" s="1" t="s">
         <v>359</v>
       </c>
@@ -5057,11 +5548,11 @@
         <v>360</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
+    <row r="178" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
       <c r="E178" s="1" t="s">
         <v>361</v>
       </c>
@@ -5069,11 +5560,11 @@
         <v>362</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
+    <row r="179" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
       <c r="E179" s="1" t="s">
         <v>363</v>
       </c>
@@ -5081,11 +5572,11 @@
         <v>364</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
+    <row r="180" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
       <c r="E180" s="1" t="s">
         <v>365</v>
       </c>
@@ -5093,11 +5584,11 @@
         <v>366</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
+    <row r="181" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
       <c r="E181" s="1" t="s">
         <v>367</v>
       </c>
@@ -5105,11 +5596,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
+    <row r="182" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
       <c r="E182" s="1" t="s">
         <v>369</v>
       </c>
@@ -5117,14 +5608,14 @@
         <v>370</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>255</v>
+    <row r="183" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>371</v>
@@ -5136,11 +5627,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
+    <row r="184" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
       <c r="E184" s="1" t="s">
         <v>373</v>
       </c>
@@ -5148,11 +5639,11 @@
         <v>374</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
+    <row r="185" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
       <c r="E185" s="1" t="s">
         <v>375</v>
       </c>
@@ -5160,11 +5651,11 @@
         <v>376</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
+    <row r="186" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
       <c r="E186" s="1" t="s">
         <v>377</v>
       </c>
@@ -5172,11 +5663,11 @@
         <v>378</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
+    <row r="187" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
       <c r="E187" s="1" t="s">
         <v>379</v>
       </c>
@@ -5184,11 +5675,11 @@
         <v>380</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
+    <row r="188" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
       <c r="E188" s="1" t="s">
         <v>381</v>
       </c>
@@ -5196,11 +5687,11 @@
         <v>382</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
+    <row r="189" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
       <c r="E189" s="1" t="s">
         <v>383</v>
       </c>
@@ -5208,105 +5699,105 @@
         <v>384</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="2" t="s">
+    <row r="190" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E190" s="1" t="s">
+      <c r="F190" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
+    <row r="191" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
       <c r="E191" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="F191" s="1" t="s">
+    </row>
+    <row r="192" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="1" t="s">
+      <c r="F192" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F192" s="1" t="s">
+    </row>
+    <row r="193" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F193" s="1" t="s">
+    </row>
+    <row r="194" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="1" t="s">
+      <c r="F194" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F194" s="1" t="s">
+    </row>
+    <row r="195" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="1" t="s">
+      <c r="F195" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F195" s="1" t="s">
+    </row>
+    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="1" t="s">
+      <c r="F196" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F196" s="1" t="s">
+    </row>
+    <row r="197" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="3" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>255</v>
+      <c r="D197" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>400</v>
@@ -5318,11 +5809,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
+    <row r="198" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
       <c r="E198" s="1" t="s">
         <v>402</v>
       </c>
@@ -5330,11 +5821,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
+    <row r="199" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
       <c r="E199" s="1" t="s">
         <v>404</v>
       </c>
@@ -5342,11 +5833,11 @@
         <v>405</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
+    <row r="200" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
       <c r="E200" s="1" t="s">
         <v>406</v>
       </c>
@@ -5354,11 +5845,11 @@
         <v>407</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
+    <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
       <c r="E201" s="1" t="s">
         <v>408</v>
       </c>
@@ -5366,11 +5857,11 @@
         <v>409</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
+    <row r="202" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
       <c r="E202" s="1" t="s">
         <v>410</v>
       </c>
@@ -5378,11 +5869,11 @@
         <v>411</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
+    <row r="203" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
       <c r="E203" s="1" t="s">
         <v>412</v>
       </c>
@@ -5390,14 +5881,14 @@
         <v>413</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>255</v>
+    <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>414</v>
@@ -5409,11 +5900,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
+    <row r="205" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
       <c r="E205" s="1" t="s">
         <v>416</v>
       </c>
@@ -5421,11 +5912,11 @@
         <v>417</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
+    <row r="206" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
       <c r="E206" s="1" t="s">
         <v>418</v>
       </c>
@@ -5433,11 +5924,11 @@
         <v>419</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
+    <row r="207" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
       <c r="E207" s="1" t="s">
         <v>420</v>
       </c>
@@ -5445,11 +5936,11 @@
         <v>421</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
+    <row r="208" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
       <c r="E208" s="1" t="s">
         <v>422</v>
       </c>
@@ -5457,11 +5948,11 @@
         <v>423</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
+    <row r="209" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
       <c r="E209" s="1" t="s">
         <v>424</v>
       </c>
@@ -5469,11 +5960,11 @@
         <v>425</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
+    <row r="210" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
       <c r="E210" s="1" t="s">
         <v>426</v>
       </c>
@@ -5481,14 +5972,14 @@
         <v>427</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>255</v>
+    <row r="211" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>428</v>
@@ -5500,11 +5991,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
+    <row r="212" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
       <c r="E212" s="1" t="s">
         <v>430</v>
       </c>
@@ -5512,11 +6003,11 @@
         <v>431</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
+    <row r="213" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
       <c r="E213" s="1" t="s">
         <v>432</v>
       </c>
@@ -5524,11 +6015,11 @@
         <v>433</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
+    <row r="214" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
       <c r="E214" s="1" t="s">
         <v>434</v>
       </c>
@@ -5536,11 +6027,11 @@
         <v>435</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
+    <row r="215" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
       <c r="E215" s="1" t="s">
         <v>436</v>
       </c>
@@ -5548,11 +6039,11 @@
         <v>437</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
+    <row r="216" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
       <c r="E216" s="1" t="s">
         <v>438</v>
       </c>
@@ -5560,11 +6051,11 @@
         <v>439</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
+    <row r="217" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
       <c r="E217" s="1" t="s">
         <v>440</v>
       </c>
@@ -5572,14 +6063,14 @@
         <v>441</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>255</v>
+    <row r="218" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>442</v>
@@ -5587,12 +6078,15 @@
       <c r="F218" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
+      <c r="G218" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
       <c r="E219" s="1" t="s">
         <v>444</v>
       </c>
@@ -5600,11 +6094,11 @@
         <v>445</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
+    <row r="220" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="4"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
       <c r="E220" s="1" t="s">
         <v>446</v>
       </c>
@@ -5612,26 +6106,23 @@
         <v>447</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
+    <row r="221" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
       <c r="E221" s="1" t="s">
         <v>448</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G221" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
+    </row>
+    <row r="222" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
       <c r="E222" s="1" t="s">
         <v>450</v>
       </c>
@@ -5639,11 +6130,11 @@
         <v>451</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
+    <row r="223" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
       <c r="E223" s="1" t="s">
         <v>452</v>
       </c>
@@ -5651,11 +6142,11 @@
         <v>453</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
+    <row r="224" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="4"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
       <c r="E224" s="1" t="s">
         <v>454</v>
       </c>
@@ -5663,11 +6154,15 @@
         <v>455</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
+    <row r="225" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="E225" s="1" t="s">
         <v>456</v>
       </c>
@@ -5675,11 +6170,11 @@
         <v>457</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
+    <row r="226" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
       <c r="E226" s="1" t="s">
         <v>458</v>
       </c>
@@ -5687,11 +6182,11 @@
         <v>459</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
+    <row r="227" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
       <c r="E227" s="1" t="s">
         <v>460</v>
       </c>
@@ -5699,15 +6194,11 @@
         <v>461</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>255</v>
-      </c>
+    <row r="228" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
       <c r="E228" s="1" t="s">
         <v>462</v>
       </c>
@@ -5718,11 +6209,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
+    <row r="229" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
       <c r="E229" s="1" t="s">
         <v>464</v>
       </c>
@@ -5730,11 +6221,11 @@
         <v>465</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
+    <row r="230" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
       <c r="E230" s="1" t="s">
         <v>466</v>
       </c>
@@ -5742,11 +6233,11 @@
         <v>467</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
+    <row r="231" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
       <c r="E231" s="1" t="s">
         <v>468</v>
       </c>
@@ -5754,11 +6245,11 @@
         <v>469</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
+    <row r="232" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
       <c r="E232" s="1" t="s">
         <v>470</v>
       </c>
@@ -5766,11 +6257,11 @@
         <v>471</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
+    <row r="233" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
       <c r="E233" s="1" t="s">
         <v>472</v>
       </c>
@@ -5778,11 +6269,11 @@
         <v>473</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
+    <row r="234" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="4"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
       <c r="E234" s="1" t="s">
         <v>474</v>
       </c>
@@ -5790,14 +6281,14 @@
         <v>475</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>255</v>
+    <row r="235" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>476</v>
@@ -5809,11 +6300,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
+    <row r="236" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="4"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
       <c r="E236" s="1" t="s">
         <v>478</v>
       </c>
@@ -5821,11 +6312,11 @@
         <v>479</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
+    <row r="237" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
       <c r="E237" s="1" t="s">
         <v>480</v>
       </c>
@@ -5833,11 +6324,11 @@
         <v>481</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
+    <row r="238" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="4"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
       <c r="E238" s="1" t="s">
         <v>482</v>
       </c>
@@ -5845,11 +6336,11 @@
         <v>483</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
+    <row r="239" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
       <c r="E239" s="1" t="s">
         <v>484</v>
       </c>
@@ -5857,11 +6348,11 @@
         <v>485</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
+    <row r="240" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="4"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
       <c r="E240" s="1" t="s">
         <v>486</v>
       </c>
@@ -5869,11 +6360,11 @@
         <v>487</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
+    <row r="241" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
       <c r="E241" s="1" t="s">
         <v>488</v>
       </c>
@@ -5881,1581 +6372,2638 @@
         <v>489</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
+    <row r="242" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="F242" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="G242" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="F243" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E242" s="1" t="s">
+    </row>
+    <row r="244" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
-      <c r="C243" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
+    <row r="245" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C245" s="1" t="s">
+      <c r="F247" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D245" s="1" t="s">
+    </row>
+    <row r="248" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E245" s="1" t="s">
+      <c r="F248" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="F245" s="1" t="s">
+    </row>
+    <row r="249" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="1" t="s">
+      <c r="F249" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E246" s="1" t="s">
+      <c r="G249" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="F246" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
+      <c r="F250" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C247" s="2" t="s">
+    </row>
+    <row r="251" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="F251" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E247" s="1" t="s">
+    </row>
+    <row r="252" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="F247" s="1" t="s">
+      <c r="F252" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="1" t="s">
+    <row r="253" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="F248" s="1" t="s">
+      <c r="F253" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="1" t="s">
+    <row r="254" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="F249" s="1" t="s">
+      <c r="F254" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="1" t="s">
+    <row r="255" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F250" s="1" t="s">
+      <c r="F255" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3"/>
-      <c r="C251" s="3"/>
-      <c r="D251" s="3"/>
-      <c r="E251" s="1" t="s">
+      <c r="B256" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="F251" s="1" t="s">
+      <c r="C256" s="3" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
-      <c r="D252" s="3"/>
-      <c r="E252" s="1" t="s">
+      <c r="D256" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="F252" s="1" t="s">
+      <c r="E256" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="1" t="s">
+      <c r="F256" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F253" s="1" t="s">
+    </row>
+    <row r="257" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
-      <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
-      <c r="E254" s="1" t="s">
+      <c r="F257" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="F254" s="1" t="s">
+    </row>
+    <row r="258" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
-      <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3"/>
-      <c r="E255" s="1" t="s">
+      <c r="F258" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="F255" s="1" t="s">
+    </row>
+    <row r="259" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="1" t="s">
+      <c r="F259" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="F256" s="1" t="s">
+    </row>
+    <row r="260" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="1" t="s">
+      <c r="F260" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="F257" s="1" t="s">
+    </row>
+    <row r="261" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="3"/>
-      <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="1" t="s">
+      <c r="F261" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="F258" s="1" t="s">
+    </row>
+    <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="3"/>
-      <c r="B259" s="3"/>
-      <c r="C259" s="3"/>
-      <c r="D259" s="3"/>
-      <c r="E259" s="1" t="s">
+      <c r="F262" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="F259" s="1" t="s">
+    </row>
+    <row r="263" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="3"/>
-      <c r="B260" s="3"/>
-      <c r="C260" s="3"/>
-      <c r="D260" s="3"/>
-      <c r="E260" s="1" t="s">
+      <c r="F263" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F260" s="1" t="s">
+    </row>
+    <row r="264" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="3"/>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="1" t="s">
+      <c r="F264" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="F261" s="1" t="s">
+    </row>
+    <row r="265" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="3"/>
-      <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
-      <c r="D262" s="3"/>
-      <c r="E262" s="1" t="s">
+      <c r="F265" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F262" s="1" t="s">
+    </row>
+    <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="4"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="3"/>
-      <c r="B263" s="3"/>
-      <c r="C263" s="3"/>
-      <c r="D263" s="3"/>
-      <c r="E263" s="1" t="s">
+      <c r="F266" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F263" s="1" t="s">
+    </row>
+    <row r="267" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A267" s="4"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="3" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="3"/>
-      <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="1" t="s">
+      <c r="D267" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E267" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="F264" s="1" t="s">
+      <c r="F267" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="1" t="s">
+    <row r="268" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="4"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="F265" s="1" t="s">
+      <c r="F268" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="3"/>
-      <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
-      <c r="D266" s="3"/>
-      <c r="E266" s="1" t="s">
+    <row r="269" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A269" s="4"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F266" s="1" t="s">
+      <c r="F269" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="3"/>
-      <c r="B267" s="3"/>
-      <c r="C267" s="3"/>
-      <c r="D267" s="3"/>
-      <c r="E267" s="1" t="s">
+    <row r="270" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="4"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="F267" s="1" t="s">
+      <c r="F270" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="3"/>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
-      <c r="D268" s="3"/>
-      <c r="E268" s="1" t="s">
+    <row r="271" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A271" s="4"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F268" s="1" t="s">
+      <c r="F271" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="3"/>
-      <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="1" t="s">
+    <row r="272" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A272" s="4"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F269" s="1" t="s">
+      <c r="F272" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="3"/>
-      <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
-      <c r="D270" s="3"/>
-      <c r="E270" s="1" t="s">
+    <row r="273" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="4"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F270" s="1" t="s">
+      <c r="F273" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="3"/>
-      <c r="B271" s="3"/>
-      <c r="C271" s="3"/>
-      <c r="D271" s="3"/>
-      <c r="E271" s="1" t="s">
+    <row r="274" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A274" s="4"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="F271" s="1" t="s">
+      <c r="F274" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="3"/>
-      <c r="B272" s="3"/>
-      <c r="C272" s="3"/>
-      <c r="D272" s="3"/>
-      <c r="E272" s="1" t="s">
+    <row r="275" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="4"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="F272" s="1" t="s">
+      <c r="F275" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="3"/>
-      <c r="B273" s="3"/>
-      <c r="C273" s="3"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="1" t="s">
+    <row r="276" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="4"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="F273" s="1" t="s">
+      <c r="F276" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="3"/>
-      <c r="B274" s="3"/>
-      <c r="C274" s="3"/>
-      <c r="D274" s="3"/>
-      <c r="E274" s="1" t="s">
+    <row r="277" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="4"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="F274" s="1" t="s">
+      <c r="F277" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3"/>
-      <c r="B275" s="3"/>
-      <c r="C275" s="3"/>
-      <c r="D275" s="3"/>
-      <c r="E275" s="1" t="s">
+    <row r="278" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="4"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
+      <c r="E278" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="F275" s="1" t="s">
+      <c r="F278" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4"/>
+      <c r="E279" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="3"/>
-      <c r="B276" s="3"/>
-      <c r="C276" s="3"/>
-      <c r="D276" s="3"/>
-      <c r="E276" s="1" t="s">
+      <c r="F279" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="4"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="4"/>
+      <c r="D280" s="4"/>
+      <c r="E280" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="F276" s="1" t="s">
+      <c r="F280" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
+      <c r="E281" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="3"/>
-      <c r="B277" s="3"/>
-      <c r="C277" s="3"/>
-      <c r="D277" s="3"/>
-      <c r="E277" s="1" t="s">
+      <c r="F281" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="4"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="F277" s="1" t="s">
+      <c r="D282" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E282" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="3"/>
-      <c r="B278" s="3"/>
-      <c r="C278" s="3"/>
-      <c r="D278" s="3"/>
-      <c r="E278" s="1" t="s">
+      <c r="F282" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F278" s="1" t="s">
+    </row>
+    <row r="283" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4"/>
+      <c r="E283" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="3"/>
-      <c r="B279" s="3"/>
-      <c r="C279" s="3"/>
-      <c r="D279" s="3"/>
-      <c r="E279" s="1" t="s">
+      <c r="F283" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F279" s="1" t="s">
+    </row>
+    <row r="284" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4"/>
+      <c r="E284" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3"/>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
-      <c r="D280" s="3"/>
-      <c r="E280" s="1" t="s">
+      <c r="F284" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="F280" s="1" t="s">
+    </row>
+    <row r="285" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+      <c r="E285" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="3"/>
-      <c r="B281" s="3"/>
-      <c r="C281" s="3"/>
-      <c r="D281" s="3"/>
-      <c r="E281" s="1" t="s">
+      <c r="F285" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="F281" s="1" t="s">
+    </row>
+    <row r="286" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+      <c r="E286" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="3"/>
-      <c r="B282" s="3"/>
-      <c r="C282" s="3"/>
-      <c r="D282" s="3"/>
-      <c r="E282" s="1" t="s">
+      <c r="F286" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="F282" s="1" t="s">
+    </row>
+    <row r="287" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="3"/>
-      <c r="B283" s="3"/>
-      <c r="C283" s="3"/>
-      <c r="D283" s="3"/>
-      <c r="E283" s="1" t="s">
+      <c r="F287" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F283" s="1" t="s">
+    </row>
+    <row r="288" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="4"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
+      <c r="E288" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="3"/>
-      <c r="B284" s="3"/>
-      <c r="C284" s="3"/>
-      <c r="D284" s="3"/>
-      <c r="E284" s="1" t="s">
+      <c r="F288" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="F284" s="1" t="s">
+    </row>
+    <row r="289" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+      <c r="E289" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="3"/>
-      <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
-      <c r="D285" s="3"/>
-      <c r="E285" s="1" t="s">
+      <c r="F289" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="F285" s="1" t="s">
+    </row>
+    <row r="290" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4"/>
+      <c r="E290" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3"/>
-      <c r="B286" s="3"/>
-      <c r="C286" s="3"/>
-      <c r="D286" s="3"/>
-      <c r="E286" s="1" t="s">
+      <c r="F290" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F286" s="1" t="s">
+    </row>
+    <row r="291" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+      <c r="E291" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="3"/>
-      <c r="B287" s="3"/>
-      <c r="C287" s="3"/>
-      <c r="D287" s="3"/>
-      <c r="E287" s="1" t="s">
+      <c r="F291" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F287" s="1" t="s">
+    </row>
+    <row r="292" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4"/>
+      <c r="E292" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="3"/>
-      <c r="B288" s="3"/>
-      <c r="C288" s="3"/>
-      <c r="D288" s="3"/>
-      <c r="E288" s="1" t="s">
+      <c r="F292" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="F288" s="1" t="s">
+    </row>
+    <row r="293" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A293" s="4"/>
+      <c r="B293" s="4"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="4"/>
+      <c r="E293" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="3"/>
-      <c r="B289" s="3"/>
-      <c r="C289" s="3"/>
-      <c r="D289" s="3"/>
-      <c r="E289" s="1" t="s">
+      <c r="F293" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="F289" s="1" t="s">
+    </row>
+    <row r="294" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A294" s="4"/>
+      <c r="B294" s="4"/>
+      <c r="C294" s="4"/>
+      <c r="D294" s="4"/>
+      <c r="E294" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="3"/>
-      <c r="B290" s="3"/>
-      <c r="C290" s="3"/>
-      <c r="D290" s="3"/>
-      <c r="E290" s="1" t="s">
+      <c r="F294" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="F290" s="1" t="s">
+    </row>
+    <row r="295" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A295" s="4"/>
+      <c r="B295" s="4"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+      <c r="E295" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="3"/>
-      <c r="B291" s="3"/>
-      <c r="C291" s="3"/>
-      <c r="D291" s="3"/>
-      <c r="E291" s="1" t="s">
+      <c r="F295" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="F291" s="1" t="s">
+    </row>
+    <row r="296" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A296" s="4"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="4"/>
+      <c r="D296" s="4"/>
+      <c r="E296" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="3"/>
-      <c r="B292" s="3"/>
-      <c r="C292" s="3"/>
-      <c r="D292" s="3"/>
-      <c r="E292" s="1" t="s">
+      <c r="F296" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="F292" s="1" t="s">
+    </row>
+    <row r="297" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A297" s="4"/>
+      <c r="B297" s="4"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4"/>
+      <c r="E297" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="3"/>
-      <c r="B293" s="3"/>
-      <c r="C293" s="3"/>
-      <c r="D293" s="3"/>
-      <c r="E293" s="1" t="s">
+      <c r="F297" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="F293" s="1" t="s">
+    </row>
+    <row r="298" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A298" s="4"/>
+      <c r="B298" s="4"/>
+      <c r="C298" s="4"/>
+      <c r="D298" s="4"/>
+      <c r="E298" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="3"/>
-      <c r="B294" s="3"/>
-      <c r="C294" s="3"/>
-      <c r="D294" s="3"/>
-      <c r="E294" s="1" t="s">
+      <c r="F298" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="F294" s="1" t="s">
+    </row>
+    <row r="299" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A299" s="4"/>
+      <c r="B299" s="4"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4"/>
+      <c r="E299" s="1" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3"/>
-      <c r="B295" s="3"/>
-      <c r="C295" s="3"/>
-      <c r="D295" s="3"/>
-      <c r="E295" s="1" t="s">
+      <c r="F299" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F295" s="1" t="s">
+    </row>
+    <row r="300" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A300" s="4"/>
+      <c r="B300" s="4"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4"/>
+      <c r="E300" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="3"/>
-      <c r="B296" s="3"/>
-      <c r="C296" s="3"/>
-      <c r="D296" s="3"/>
-      <c r="E296" s="1" t="s">
+      <c r="F300" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="F296" s="1" t="s">
+    </row>
+    <row r="301" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A301" s="4"/>
+      <c r="B301" s="4"/>
+      <c r="C301" s="4"/>
+      <c r="D301" s="4"/>
+      <c r="E301" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="3"/>
-      <c r="B297" s="3"/>
-      <c r="C297" s="3"/>
-      <c r="D297" s="3"/>
-      <c r="E297" s="1" t="s">
+      <c r="F301" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F297" s="1" t="s">
+    </row>
+    <row r="302" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A302" s="4"/>
+      <c r="B302" s="4"/>
+      <c r="C302" s="4"/>
+      <c r="D302" s="4"/>
+      <c r="E302" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="3"/>
-      <c r="B298" s="3"/>
-      <c r="C298" s="3"/>
-      <c r="D298" s="3"/>
-      <c r="E298" s="1" t="s">
+      <c r="F302" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A303" s="4"/>
+      <c r="B303" s="4"/>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4"/>
+      <c r="E303" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="F298" s="1" t="s">
+      <c r="F303" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="3"/>
-      <c r="B299" s="3"/>
-      <c r="C299" s="3"/>
-      <c r="D299" s="3"/>
-      <c r="E299" s="1" t="s">
+    <row r="304" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A304" s="4"/>
+      <c r="B304" s="4"/>
+      <c r="C304" s="4"/>
+      <c r="D304" s="4"/>
+      <c r="E304" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="F299" s="1" t="s">
+      <c r="F304" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="3"/>
-      <c r="B300" s="3"/>
-      <c r="C300" s="3"/>
-      <c r="D300" s="3"/>
-      <c r="E300" s="1" t="s">
+    <row r="305" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A305" s="4"/>
+      <c r="B305" s="4"/>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4"/>
+      <c r="E305" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="F300" s="1" t="s">
+      <c r="F305" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="3"/>
-      <c r="B301" s="3"/>
-      <c r="C301" s="3"/>
-      <c r="D301" s="3"/>
-      <c r="E301" s="1" t="s">
+    <row r="306" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A306" s="4"/>
+      <c r="B306" s="4"/>
+      <c r="C306" s="4"/>
+      <c r="D306" s="4"/>
+      <c r="E306" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="F301" s="1" t="s">
+      <c r="F306" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A307" s="4"/>
+      <c r="B307" s="4"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="3"/>
-      <c r="B302" s="3"/>
-      <c r="C302" s="3"/>
-      <c r="D302" s="3"/>
-      <c r="E302" s="1" t="s">
+      <c r="F307" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="F302" s="1" t="s">
+    </row>
+    <row r="308" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A308" s="4"/>
+      <c r="B308" s="4"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+      <c r="E308" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="3"/>
-      <c r="B303" s="3"/>
-      <c r="C303" s="3"/>
-      <c r="D303" s="3"/>
-      <c r="E303" s="1" t="s">
+      <c r="F308" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A309" s="4"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+      <c r="E309" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="F303" s="1" t="s">
+      <c r="F309" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="3"/>
-      <c r="B304" s="3"/>
-      <c r="C304" s="3"/>
-      <c r="D304" s="3"/>
-      <c r="E304" s="1" t="s">
+    <row r="310" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A310" s="4"/>
+      <c r="B310" s="4"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+      <c r="E310" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="F304" s="1" t="s">
+      <c r="F310" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="3"/>
-      <c r="B305" s="3"/>
-      <c r="C305" s="3"/>
-      <c r="D305" s="3"/>
-      <c r="E305" s="1" t="s">
+    <row r="311" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A311" s="4"/>
+      <c r="B311" s="4"/>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4"/>
+      <c r="E311" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="F305" s="1" t="s">
+      <c r="F311" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A312" s="4"/>
+      <c r="B312" s="4"/>
+      <c r="C312" s="4"/>
+      <c r="D312" s="4"/>
+      <c r="E312" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="3"/>
-      <c r="B306" s="3"/>
-      <c r="C306" s="3"/>
-      <c r="D306" s="3"/>
-      <c r="E306" s="1" t="s">
+      <c r="F312" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="F306" s="1" t="s">
+    </row>
+    <row r="313" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A313" s="4"/>
+      <c r="B313" s="4"/>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
+      <c r="E313" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="3"/>
-      <c r="B307" s="3"/>
-      <c r="C307" s="3"/>
-      <c r="D307" s="3"/>
-      <c r="E307" s="1" t="s">
+      <c r="F313" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A314" s="4"/>
+      <c r="B314" s="4"/>
+      <c r="C314" s="4"/>
+      <c r="D314" s="4"/>
+      <c r="E314" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="F307" s="1" t="s">
+      <c r="F314" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="3"/>
-      <c r="B308" s="3"/>
-      <c r="C308" s="3"/>
-      <c r="D308" s="3"/>
-      <c r="E308" s="1" t="s">
+    <row r="315" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A315" s="4"/>
+      <c r="B315" s="4"/>
+      <c r="C315" s="4"/>
+      <c r="D315" s="4"/>
+      <c r="E315" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="F308" s="1" t="s">
+      <c r="F315" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A316" s="4"/>
+      <c r="B316" s="4"/>
+      <c r="C316" s="4"/>
+      <c r="D316" s="4"/>
+      <c r="E316" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="3"/>
-      <c r="B309" s="3"/>
-      <c r="C309" s="3"/>
-      <c r="D309" s="3"/>
-      <c r="E309" s="1" t="s">
+      <c r="F316" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="F309" s="1" t="s">
+    </row>
+    <row r="317" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A317" s="4"/>
+      <c r="B317" s="4"/>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4"/>
+      <c r="E317" s="1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="3"/>
-      <c r="B310" s="3"/>
-      <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
-      <c r="E310" s="1" t="s">
+      <c r="F317" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="F310" s="1" t="s">
+    </row>
+    <row r="318" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="3"/>
-      <c r="B311" s="3"/>
-      <c r="C311" s="3"/>
-      <c r="D311" s="3"/>
-      <c r="E311" s="1" t="s">
+      <c r="B318" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="F311" s="1" t="s">
+      <c r="D318" s="3" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="3"/>
-      <c r="B312" s="3"/>
-      <c r="C312" s="3"/>
-      <c r="D312" s="3"/>
-      <c r="E312" s="1" t="s">
+      <c r="E318" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="F312" s="1" t="s">
+      <c r="F318" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="3"/>
-      <c r="B313" s="3"/>
-      <c r="C313" s="3"/>
-      <c r="D313" s="3"/>
-      <c r="E313" s="1" t="s">
+    <row r="319" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A319" s="4"/>
+      <c r="B319" s="4"/>
+      <c r="C319" s="4"/>
+      <c r="D319" s="4"/>
+      <c r="E319" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="F313" s="1" t="s">
+      <c r="F319" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="3"/>
-      <c r="B314" s="3"/>
-      <c r="C314" s="3"/>
-      <c r="D314" s="3"/>
-      <c r="E314" s="1" t="s">
+    <row r="320" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A320" s="4"/>
+      <c r="B320" s="4"/>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4"/>
+      <c r="E320" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F314" s="1" t="s">
+      <c r="F320" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="3"/>
-      <c r="B315" s="3"/>
-      <c r="C315" s="3"/>
-      <c r="D315" s="3"/>
-      <c r="E315" s="1" t="s">
+    <row r="321" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A321" s="4"/>
+      <c r="B321" s="4"/>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4"/>
+      <c r="E321" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="F315" s="1" t="s">
+      <c r="F321" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="3"/>
-      <c r="B316" s="3"/>
-      <c r="C316" s="3"/>
-      <c r="D316" s="3"/>
-      <c r="E316" s="1" t="s">
+    <row r="322" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A322" s="4"/>
+      <c r="B322" s="4"/>
+      <c r="C322" s="4"/>
+      <c r="D322" s="4"/>
+      <c r="E322" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="F316" s="1" t="s">
+      <c r="F322" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="3"/>
-      <c r="B317" s="3"/>
-      <c r="C317" s="3"/>
-      <c r="D317" s="3"/>
-      <c r="E317" s="1" t="s">
+    <row r="323" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A323" s="4"/>
+      <c r="B323" s="4"/>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4"/>
+      <c r="E323" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="F317" s="1" t="s">
+      <c r="F323" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="3"/>
-      <c r="B318" s="3"/>
-      <c r="C318" s="3"/>
-      <c r="D318" s="3"/>
-      <c r="E318" s="1" t="s">
+    <row r="324" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A324" s="4"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="4"/>
+      <c r="D324" s="4"/>
+      <c r="E324" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="F318" s="1" t="s">
+      <c r="F324" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A325" s="4"/>
+      <c r="B325" s="4"/>
+      <c r="C325" s="4"/>
+      <c r="D325" s="4"/>
+      <c r="E325" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="3"/>
-      <c r="B319" s="3"/>
-      <c r="C319" s="3"/>
-      <c r="D319" s="3"/>
-      <c r="E319" s="1" t="s">
+      <c r="F325" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A326" s="4"/>
+      <c r="B326" s="4"/>
+      <c r="C326" s="4"/>
+      <c r="D326" s="4"/>
+      <c r="E326" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="F319" s="1" t="s">
+      <c r="F326" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A327" s="4"/>
+      <c r="B327" s="4"/>
+      <c r="C327" s="4"/>
+      <c r="D327" s="4"/>
+      <c r="E327" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="3"/>
-      <c r="B320" s="3"/>
-      <c r="C320" s="3"/>
-      <c r="D320" s="3"/>
-      <c r="E320" s="1" t="s">
+      <c r="F327" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="F320" s="1" t="s">
+    </row>
+    <row r="328" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A328" s="4"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="3"/>
-      <c r="B321" s="3"/>
-      <c r="C321" s="3"/>
-      <c r="D321" s="3"/>
-      <c r="E321" s="1" t="s">
+      <c r="F328" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="F321" s="1" t="s">
+    </row>
+    <row r="329" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="3"/>
-      <c r="B322" s="3"/>
-      <c r="C322" s="3"/>
-      <c r="D322" s="3"/>
-      <c r="E322" s="1" t="s">
+      <c r="F329" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A330" s="4"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="F322" s="1" t="s">
+      <c r="D330" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E330" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="3"/>
-      <c r="B323" s="3"/>
-      <c r="C323" s="3"/>
-      <c r="D323" s="3"/>
-      <c r="E323" s="1" t="s">
+      <c r="F330" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="F323" s="1" t="s">
+    </row>
+    <row r="331" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A331" s="4"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="3"/>
-      <c r="B324" s="3"/>
-      <c r="C324" s="3"/>
-      <c r="D324" s="3"/>
-      <c r="E324" s="1" t="s">
+      <c r="F331" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A332" s="4"/>
+      <c r="B332" s="4"/>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4"/>
+      <c r="E332" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="F324" s="1" t="s">
+      <c r="F332" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="3"/>
-      <c r="B325" s="3"/>
-      <c r="C325" s="3"/>
-      <c r="D325" s="3"/>
-      <c r="E325" s="1" t="s">
+    <row r="333" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="F325" s="1" t="s">
+      <c r="B333" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C333" s="3" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="3"/>
-      <c r="B326" s="3"/>
-      <c r="C326" s="3"/>
-      <c r="D326" s="3"/>
-      <c r="E326" s="1" t="s">
+      <c r="D333" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="F326" s="1" t="s">
+      <c r="E333" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="3"/>
-      <c r="B327" s="3"/>
-      <c r="C327" s="3"/>
-      <c r="D327" s="3"/>
-      <c r="E327" s="1" t="s">
+      <c r="F333" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="F327" s="1" t="s">
+    </row>
+    <row r="334" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A334" s="4"/>
+      <c r="B334" s="4"/>
+      <c r="C334" s="4"/>
+      <c r="D334" s="4"/>
+      <c r="E334" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="3"/>
-      <c r="B328" s="3"/>
-      <c r="C328" s="3"/>
-      <c r="D328" s="3"/>
-      <c r="E328" s="1" t="s">
+      <c r="F334" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="F328" s="1" t="s">
+    </row>
+    <row r="335" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A335" s="4"/>
+      <c r="B335" s="4"/>
+      <c r="C335" s="4"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3"/>
-      <c r="B329" s="3"/>
-      <c r="C329" s="3"/>
-      <c r="D329" s="3"/>
-      <c r="E329" s="1" t="s">
+      <c r="F335" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="F329" s="1" t="s">
+    </row>
+    <row r="336" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A336" s="4"/>
+      <c r="B336" s="4"/>
+      <c r="C336" s="4"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="3"/>
-      <c r="B330" s="3"/>
-      <c r="C330" s="3"/>
-      <c r="D330" s="3"/>
-      <c r="E330" s="1" t="s">
+      <c r="F336" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="F330" s="1" t="s">
+    </row>
+    <row r="337" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A337" s="4"/>
+      <c r="B337" s="4"/>
+      <c r="C337" s="4"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="1" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="3"/>
-      <c r="B331" s="3"/>
-      <c r="C331" s="3"/>
-      <c r="D331" s="3"/>
-      <c r="E331" s="1" t="s">
+      <c r="F337" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="F331" s="1" t="s">
+    </row>
+    <row r="338" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A338" s="4"/>
+      <c r="B338" s="4"/>
+      <c r="C338" s="4"/>
+      <c r="D338" s="4"/>
+      <c r="E338" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="3"/>
-      <c r="B332" s="3"/>
-      <c r="C332" s="3"/>
-      <c r="D332" s="3"/>
-      <c r="E332" s="1" t="s">
+      <c r="F338" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="F332" s="1" t="s">
+    </row>
+    <row r="339" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A339" s="4"/>
+      <c r="B339" s="4"/>
+      <c r="C339" s="4"/>
+      <c r="D339" s="4"/>
+      <c r="E339" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="3"/>
-      <c r="B333" s="3"/>
-      <c r="C333" s="3"/>
-      <c r="D333" s="3"/>
-      <c r="E333" s="1" t="s">
+      <c r="F339" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="F333" s="1" t="s">
+    </row>
+    <row r="340" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A340" s="4"/>
+      <c r="B340" s="4"/>
+      <c r="C340" s="4"/>
+      <c r="D340" s="4"/>
+      <c r="E340" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="3"/>
-      <c r="B334" s="3"/>
-      <c r="C334" s="3"/>
-      <c r="D334" s="3"/>
-      <c r="E334" s="1" t="s">
+      <c r="F340" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F334" s="1" t="s">
+    </row>
+    <row r="341" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A341" s="4"/>
+      <c r="B341" s="4"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="3"/>
-      <c r="B335" s="3"/>
-      <c r="C335" s="3"/>
-      <c r="D335" s="3"/>
-      <c r="E335" s="1" t="s">
+      <c r="F341" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="F335" s="1" t="s">
+    </row>
+    <row r="342" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A342" s="4"/>
+      <c r="B342" s="4"/>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="3"/>
-      <c r="B336" s="3"/>
-      <c r="C336" s="3"/>
-      <c r="D336" s="3"/>
-      <c r="E336" s="1" t="s">
+      <c r="F342" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="F336" s="1" t="s">
+    </row>
+    <row r="343" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A343" s="4"/>
+      <c r="B343" s="4"/>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4"/>
+      <c r="E343" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="3"/>
-      <c r="B337" s="3"/>
-      <c r="C337" s="3"/>
-      <c r="D337" s="3"/>
-      <c r="E337" s="1" t="s">
+      <c r="F343" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="F337" s="1" t="s">
+    </row>
+    <row r="344" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A344" s="4"/>
+      <c r="B344" s="4"/>
+      <c r="C344" s="4"/>
+      <c r="D344" s="4"/>
+      <c r="E344" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="3"/>
-      <c r="B338" s="3"/>
-      <c r="C338" s="3"/>
-      <c r="D338" s="3"/>
-      <c r="E338" s="1" t="s">
+      <c r="F344" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="F338" s="1" t="s">
+    </row>
+    <row r="345" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A345" s="4"/>
+      <c r="B345" s="4"/>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4"/>
+      <c r="E345" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="3"/>
-      <c r="B339" s="3"/>
-      <c r="C339" s="3"/>
-      <c r="D339" s="3"/>
-      <c r="E339" s="1" t="s">
+      <c r="F345" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="F339" s="1" t="s">
+    </row>
+    <row r="346" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A346" s="4"/>
+      <c r="B346" s="4"/>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
+      <c r="E346" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="3"/>
-      <c r="B340" s="3"/>
-      <c r="C340" s="3"/>
-      <c r="D340" s="3"/>
-      <c r="E340" s="1" t="s">
+      <c r="F346" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="F340" s="1" t="s">
+    </row>
+    <row r="347" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A347" s="4"/>
+      <c r="B347" s="4"/>
+      <c r="C347" s="4"/>
+      <c r="D347" s="4"/>
+      <c r="E347" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="3"/>
-      <c r="B341" s="3"/>
-      <c r="C341" s="3"/>
-      <c r="D341" s="3"/>
-      <c r="E341" s="1" t="s">
+      <c r="F347" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="F341" s="1" t="s">
+    </row>
+    <row r="348" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A348" s="4"/>
+      <c r="B348" s="4"/>
+      <c r="C348" s="4"/>
+      <c r="D348" s="4"/>
+      <c r="E348" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="3"/>
-      <c r="B342" s="3"/>
-      <c r="C342" s="3"/>
-      <c r="D342" s="3"/>
-      <c r="E342" s="1" t="s">
+      <c r="F348" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="F342" s="1" t="s">
+    </row>
+    <row r="349" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A349" s="4"/>
+      <c r="B349" s="4"/>
+      <c r="C349" s="4"/>
+      <c r="D349" s="4"/>
+      <c r="E349" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="3"/>
-      <c r="B343" s="3"/>
-      <c r="C343" s="3"/>
-      <c r="D343" s="3"/>
-      <c r="E343" s="1" t="s">
+      <c r="F349" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="F343" s="1" t="s">
+    </row>
+    <row r="350" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A350" s="4"/>
+      <c r="B350" s="4"/>
+      <c r="C350" s="4"/>
+      <c r="D350" s="4"/>
+      <c r="E350" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="3"/>
-      <c r="B344" s="3"/>
-      <c r="C344" s="3"/>
-      <c r="D344" s="3"/>
-      <c r="E344" s="1" t="s">
+      <c r="F350" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="F344" s="1" t="s">
+    </row>
+    <row r="351" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A351" s="4"/>
+      <c r="B351" s="4"/>
+      <c r="C351" s="4"/>
+      <c r="D351" s="4"/>
+      <c r="E351" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="3"/>
-      <c r="B345" s="3"/>
-      <c r="C345" s="3"/>
-      <c r="D345" s="3"/>
-      <c r="E345" s="1" t="s">
+      <c r="F351" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F345" s="1" t="s">
+    </row>
+    <row r="352" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A352" s="4"/>
+      <c r="B352" s="4"/>
+      <c r="C352" s="4"/>
+      <c r="D352" s="4"/>
+      <c r="E352" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="3"/>
-      <c r="B346" s="3"/>
-      <c r="C346" s="3"/>
-      <c r="D346" s="3"/>
-      <c r="E346" s="1" t="s">
+      <c r="F352" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="F346" s="1" t="s">
+    </row>
+    <row r="353" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A353" s="4"/>
+      <c r="B353" s="4"/>
+      <c r="C353" s="4"/>
+      <c r="D353" s="4"/>
+      <c r="E353" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="3"/>
-      <c r="B347" s="3"/>
-      <c r="C347" s="3"/>
-      <c r="D347" s="3"/>
-      <c r="E347" s="1" t="s">
+      <c r="F353" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="F347" s="1" t="s">
+    </row>
+    <row r="354" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A354" s="4"/>
+      <c r="B354" s="4"/>
+      <c r="C354" s="4"/>
+      <c r="D354" s="4"/>
+      <c r="E354" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="3"/>
-      <c r="B348" s="3"/>
-      <c r="C348" s="3"/>
-      <c r="D348" s="3"/>
-      <c r="E348" s="1" t="s">
+      <c r="F354" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="F348" s="1" t="s">
+    </row>
+    <row r="355" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A355" s="4"/>
+      <c r="B355" s="4"/>
+      <c r="C355" s="4"/>
+      <c r="D355" s="4"/>
+      <c r="E355" s="1" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="3"/>
-      <c r="B349" s="3"/>
-      <c r="C349" s="3"/>
-      <c r="D349" s="3"/>
-      <c r="E349" s="1" t="s">
+      <c r="F355" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="F349" s="1" t="s">
+    </row>
+    <row r="356" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A356" s="4"/>
+      <c r="B356" s="4"/>
+      <c r="C356" s="4"/>
+      <c r="D356" s="4"/>
+      <c r="E356" s="1" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="3"/>
-      <c r="B350" s="3"/>
-      <c r="C350" s="3"/>
-      <c r="D350" s="3"/>
-      <c r="E350" s="1" t="s">
+      <c r="F356" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="F350" s="1" t="s">
+    </row>
+    <row r="357" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A357" s="4"/>
+      <c r="B357" s="4"/>
+      <c r="C357" s="4"/>
+      <c r="D357" s="4"/>
+      <c r="E357" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="3"/>
-      <c r="B351" s="3"/>
-      <c r="C351" s="3"/>
-      <c r="D351" s="3"/>
-      <c r="E351" s="1" t="s">
+      <c r="F357" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="F351" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="3"/>
-      <c r="B352" s="3"/>
-      <c r="C352" s="3"/>
-      <c r="D352" s="3"/>
-      <c r="E352" s="1" t="s">
+    </row>
+    <row r="358" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A358" s="4"/>
+      <c r="B358" s="4"/>
+      <c r="C358" s="4"/>
+      <c r="D358" s="4"/>
+      <c r="E358" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="F352" s="1" t="s">
+      <c r="F358" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="3"/>
-      <c r="B353" s="3"/>
-      <c r="C353" s="3"/>
-      <c r="D353" s="3"/>
-      <c r="E353" s="1" t="s">
+    <row r="359" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A359" s="4"/>
+      <c r="B359" s="4"/>
+      <c r="C359" s="4"/>
+      <c r="D359" s="4"/>
+      <c r="E359" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="F353" s="1" t="s">
+      <c r="F359" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="3"/>
-      <c r="B354" s="3"/>
-      <c r="C354" s="3"/>
-      <c r="D354" s="3"/>
-      <c r="E354" s="1" t="s">
+    <row r="360" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A360" s="4"/>
+      <c r="B360" s="4"/>
+      <c r="C360" s="4"/>
+      <c r="D360" s="4"/>
+      <c r="E360" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="F354" s="1" t="s">
+      <c r="F360" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="3"/>
-      <c r="B355" s="3"/>
-      <c r="C355" s="3"/>
-      <c r="D355" s="3"/>
-      <c r="E355" s="1" t="s">
+    <row r="361" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A361" s="4"/>
+      <c r="B361" s="4"/>
+      <c r="C361" s="4"/>
+      <c r="D361" s="4"/>
+      <c r="E361" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="F355" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="3"/>
-      <c r="B356" s="3"/>
-      <c r="C356" s="3"/>
-      <c r="D356" s="3"/>
-      <c r="E356" s="1" t="s">
+      <c r="F361" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F356" s="1" t="s">
+    </row>
+    <row r="362" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A362" s="4"/>
+      <c r="B362" s="4"/>
+      <c r="C362" s="4"/>
+      <c r="D362" s="4"/>
+      <c r="E362" s="1" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="3"/>
-      <c r="B357" s="3"/>
-      <c r="C357" s="3"/>
-      <c r="D357" s="3"/>
-      <c r="E357" s="1" t="s">
+      <c r="F362" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="F357" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="3"/>
-      <c r="B358" s="3"/>
-      <c r="C358" s="3"/>
-      <c r="D358" s="3"/>
-      <c r="E358" s="1" t="s">
+    </row>
+    <row r="363" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A363" s="4"/>
+      <c r="B363" s="4"/>
+      <c r="C363" s="4"/>
+      <c r="D363" s="4"/>
+      <c r="E363" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="F358" s="1" t="s">
+      <c r="F363" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="3"/>
-      <c r="B359" s="3"/>
-      <c r="C359" s="3"/>
-      <c r="D359" s="3"/>
-      <c r="E359" s="1" t="s">
+    <row r="364" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A364" s="4"/>
+      <c r="B364" s="4"/>
+      <c r="C364" s="4"/>
+      <c r="D364" s="4"/>
+      <c r="E364" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="F359" s="1" t="s">
+      <c r="F364" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="3"/>
-      <c r="B360" s="3"/>
-      <c r="C360" s="3"/>
-      <c r="D360" s="3"/>
-      <c r="E360" s="1" t="s">
+    <row r="365" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A365" s="4"/>
+      <c r="B365" s="4"/>
+      <c r="C365" s="4"/>
+      <c r="D365" s="4"/>
+      <c r="E365" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="F360" s="1" t="s">
+      <c r="F365" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="3"/>
-      <c r="B361" s="3"/>
-      <c r="C361" s="3"/>
-      <c r="D361" s="3"/>
-      <c r="E361" s="1" t="s">
+    <row r="366" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A366" s="4"/>
+      <c r="B366" s="4"/>
+      <c r="C366" s="4"/>
+      <c r="D366" s="4"/>
+      <c r="E366" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="F361" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="3"/>
-      <c r="B362" s="3"/>
-      <c r="C362" s="3"/>
-      <c r="D362" s="3"/>
-      <c r="E362" s="1" t="s">
+      <c r="F366" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="F362" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="3"/>
-      <c r="B363" s="3"/>
-      <c r="C363" s="3"/>
-      <c r="D363" s="3"/>
-      <c r="E363" s="1" t="s">
+    </row>
+    <row r="367" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A367" s="4"/>
+      <c r="B367" s="4"/>
+      <c r="C367" s="4"/>
+      <c r="D367" s="4"/>
+      <c r="E367" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="F363" s="1" t="s">
+      <c r="F367" s="1" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="3"/>
-      <c r="B364" s="3"/>
-      <c r="C364" s="3"/>
-      <c r="D364" s="3"/>
-      <c r="E364" s="1" t="s">
+    <row r="368" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A368" s="4"/>
+      <c r="B368" s="4"/>
+      <c r="C368" s="4"/>
+      <c r="D368" s="4"/>
+      <c r="E368" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="F364" s="1" t="s">
+      <c r="F368" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="3"/>
-      <c r="B365" s="3"/>
-      <c r="C365" s="3"/>
-      <c r="D365" s="3"/>
-      <c r="E365" s="1" t="s">
+    <row r="369" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A369" s="4"/>
+      <c r="B369" s="4"/>
+      <c r="C369" s="4"/>
+      <c r="D369" s="4"/>
+      <c r="E369" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="F365" s="1" t="s">
+      <c r="F369" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="3"/>
-      <c r="B366" s="3"/>
-      <c r="C366" s="3"/>
-      <c r="D366" s="3"/>
-      <c r="E366" s="1" t="s">
+    <row r="370" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A370" s="4"/>
+      <c r="B370" s="4"/>
+      <c r="C370" s="4"/>
+      <c r="D370" s="4"/>
+      <c r="E370" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="F366" s="1" t="s">
+      <c r="F370" s="1" t="s">
         <v>744</v>
       </c>
     </row>
+    <row r="371" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A371" s="4"/>
+      <c r="B371" s="4"/>
+      <c r="C371" s="4"/>
+      <c r="D371" s="4"/>
+      <c r="E371" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A372" s="4"/>
+      <c r="B372" s="4"/>
+      <c r="C372" s="4"/>
+      <c r="D372" s="4"/>
+      <c r="E372" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A373" s="4"/>
+      <c r="B373" s="4"/>
+      <c r="C373" s="4"/>
+      <c r="D373" s="4"/>
+      <c r="E373" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A374" s="4"/>
+      <c r="B374" s="4"/>
+      <c r="C374" s="4"/>
+      <c r="D374" s="4"/>
+      <c r="E374" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A375" s="4"/>
+      <c r="B375" s="4"/>
+      <c r="C375" s="4"/>
+      <c r="D375" s="4"/>
+      <c r="E375" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A376" s="4"/>
+      <c r="B376" s="4"/>
+      <c r="C376" s="4"/>
+      <c r="D376" s="4"/>
+      <c r="E376" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A377" s="4"/>
+      <c r="B377" s="4"/>
+      <c r="C377" s="4"/>
+      <c r="D377" s="4"/>
+      <c r="E377" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A378" s="4"/>
+      <c r="B378" s="4"/>
+      <c r="C378" s="4"/>
+      <c r="D378" s="4"/>
+      <c r="E378" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A379" s="4"/>
+      <c r="B379" s="4"/>
+      <c r="C379" s="4"/>
+      <c r="D379" s="4"/>
+      <c r="E379" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A380" s="4"/>
+      <c r="B380" s="4"/>
+      <c r="C380" s="4"/>
+      <c r="D380" s="4"/>
+      <c r="E380" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A381" s="4"/>
+      <c r="B381" s="4"/>
+      <c r="C381" s="4"/>
+      <c r="D381" s="4"/>
+      <c r="E381" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A382" s="4"/>
+      <c r="B382" s="4"/>
+      <c r="C382" s="4"/>
+      <c r="D382" s="4"/>
+      <c r="E382" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A383" s="4"/>
+      <c r="B383" s="4"/>
+      <c r="C383" s="4"/>
+      <c r="D383" s="4"/>
+      <c r="E383" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A384" s="4"/>
+      <c r="B384" s="4"/>
+      <c r="C384" s="4"/>
+      <c r="D384" s="4"/>
+      <c r="E384" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A385" s="4"/>
+      <c r="B385" s="4"/>
+      <c r="C385" s="4"/>
+      <c r="D385" s="4"/>
+      <c r="E385" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A386" s="4"/>
+      <c r="B386" s="4"/>
+      <c r="C386" s="4"/>
+      <c r="D386" s="4"/>
+      <c r="E386" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A387" s="4"/>
+      <c r="B387" s="4"/>
+      <c r="C387" s="4"/>
+      <c r="D387" s="4"/>
+      <c r="E387" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A388" s="4"/>
+      <c r="B388" s="4"/>
+      <c r="C388" s="4"/>
+      <c r="D388" s="4"/>
+      <c r="E388" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A389" s="4"/>
+      <c r="B389" s="4"/>
+      <c r="C389" s="4"/>
+      <c r="D389" s="4"/>
+      <c r="E389" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A390" s="4"/>
+      <c r="B390" s="4"/>
+      <c r="C390" s="4"/>
+      <c r="D390" s="4"/>
+      <c r="E390" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A391" s="4"/>
+      <c r="B391" s="4"/>
+      <c r="C391" s="4"/>
+      <c r="D391" s="4"/>
+      <c r="E391" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A392" s="4"/>
+      <c r="B392" s="4"/>
+      <c r="C392" s="4"/>
+      <c r="D392" s="4"/>
+      <c r="E392" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A393" s="4"/>
+      <c r="B393" s="4"/>
+      <c r="C393" s="4"/>
+      <c r="D393" s="4"/>
+      <c r="E393" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A394" s="4"/>
+      <c r="B394" s="4"/>
+      <c r="C394" s="4"/>
+      <c r="D394" s="4"/>
+      <c r="E394" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A395" s="4"/>
+      <c r="B395" s="4"/>
+      <c r="C395" s="4"/>
+      <c r="D395" s="4"/>
+      <c r="E395" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A396" s="4"/>
+      <c r="B396" s="4"/>
+      <c r="C396" s="4"/>
+      <c r="D396" s="4"/>
+      <c r="E396" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A397" s="4"/>
+      <c r="B397" s="4"/>
+      <c r="C397" s="4"/>
+      <c r="D397" s="4"/>
+      <c r="E397" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A398" s="4"/>
+      <c r="B398" s="4"/>
+      <c r="C398" s="4"/>
+      <c r="D398" s="4"/>
+      <c r="E398" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A399" s="4"/>
+      <c r="B399" s="4"/>
+      <c r="C399" s="4"/>
+      <c r="D399" s="4"/>
+      <c r="E399" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A400" s="4"/>
+      <c r="B400" s="4"/>
+      <c r="C400" s="4"/>
+      <c r="D400" s="4"/>
+      <c r="E400" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A401" s="4"/>
+      <c r="B401" s="4"/>
+      <c r="C401" s="4"/>
+      <c r="D401" s="4"/>
+      <c r="E401" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A402" s="4"/>
+      <c r="B402" s="4"/>
+      <c r="C402" s="4"/>
+      <c r="D402" s="4"/>
+      <c r="E402" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A403" s="4"/>
+      <c r="B403" s="4"/>
+      <c r="C403" s="4"/>
+      <c r="D403" s="4"/>
+      <c r="E403" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A404" s="4"/>
+      <c r="B404" s="4"/>
+      <c r="C404" s="4"/>
+      <c r="D404" s="4"/>
+      <c r="E404" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A405" s="4"/>
+      <c r="B405" s="4"/>
+      <c r="C405" s="4"/>
+      <c r="D405" s="4"/>
+      <c r="E405" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A406" s="4"/>
+      <c r="B406" s="4"/>
+      <c r="C406" s="4"/>
+      <c r="D406" s="4"/>
+      <c r="E406" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A407" s="4"/>
+      <c r="B407" s="4"/>
+      <c r="C407" s="4"/>
+      <c r="D407" s="4"/>
+      <c r="E407" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A408" s="4"/>
+      <c r="B408" s="4"/>
+      <c r="C408" s="4"/>
+      <c r="D408" s="4"/>
+      <c r="E408" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A409" s="4"/>
+      <c r="B409" s="4"/>
+      <c r="C409" s="4"/>
+      <c r="D409" s="4"/>
+      <c r="E409" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A410" s="4"/>
+      <c r="B410" s="4"/>
+      <c r="C410" s="4"/>
+      <c r="D410" s="4"/>
+      <c r="E410" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A411" s="4"/>
+      <c r="B411" s="4"/>
+      <c r="C411" s="4"/>
+      <c r="D411" s="4"/>
+      <c r="E411" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A412" s="4"/>
+      <c r="B412" s="4"/>
+      <c r="C412" s="4"/>
+      <c r="D412" s="4"/>
+      <c r="E412" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A413" s="4"/>
+      <c r="B413" s="4"/>
+      <c r="C413" s="4"/>
+      <c r="D413" s="4"/>
+      <c r="E413" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A414" s="4"/>
+      <c r="B414" s="4"/>
+      <c r="C414" s="4"/>
+      <c r="D414" s="4"/>
+      <c r="E414" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A415" s="4"/>
+      <c r="B415" s="4"/>
+      <c r="C415" s="4"/>
+      <c r="D415" s="4"/>
+      <c r="E415" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A416" s="4"/>
+      <c r="B416" s="4"/>
+      <c r="C416" s="4"/>
+      <c r="D416" s="4"/>
+      <c r="E416" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A417" s="4"/>
+      <c r="B417" s="4"/>
+      <c r="C417" s="4"/>
+      <c r="D417" s="4"/>
+      <c r="E417" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A418" s="4"/>
+      <c r="B418" s="4"/>
+      <c r="C418" s="4"/>
+      <c r="D418" s="4"/>
+      <c r="E418" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A419" s="4"/>
+      <c r="B419" s="4"/>
+      <c r="C419" s="4"/>
+      <c r="D419" s="4"/>
+      <c r="E419" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A420" s="4"/>
+      <c r="B420" s="4"/>
+      <c r="C420" s="4"/>
+      <c r="D420" s="4"/>
+      <c r="E420" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A421" s="4"/>
+      <c r="B421" s="4"/>
+      <c r="C421" s="4"/>
+      <c r="D421" s="4"/>
+      <c r="E421" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A422" s="4"/>
+      <c r="B422" s="4"/>
+      <c r="C422" s="4"/>
+      <c r="D422" s="4"/>
+      <c r="E422" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A423" s="4"/>
+      <c r="B423" s="4"/>
+      <c r="C423" s="4"/>
+      <c r="D423" s="4"/>
+      <c r="E423" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A424" s="4"/>
+      <c r="B424" s="4"/>
+      <c r="C424" s="4"/>
+      <c r="D424" s="4"/>
+      <c r="E424" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A425" s="4"/>
+      <c r="B425" s="4"/>
+      <c r="C425" s="4"/>
+      <c r="D425" s="4"/>
+      <c r="E425" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A426" s="4"/>
+      <c r="B426" s="4"/>
+      <c r="C426" s="4"/>
+      <c r="D426" s="4"/>
+      <c r="E426" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A427" s="4"/>
+      <c r="B427" s="4"/>
+      <c r="C427" s="4"/>
+      <c r="D427" s="4"/>
+      <c r="E427" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A428" s="4"/>
+      <c r="B428" s="4"/>
+      <c r="C428" s="4"/>
+      <c r="D428" s="4"/>
+      <c r="E428" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A429" s="4"/>
+      <c r="B429" s="4"/>
+      <c r="C429" s="4"/>
+      <c r="D429" s="4"/>
+      <c r="E429" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A430" s="4"/>
+      <c r="B430" s="4"/>
+      <c r="C430" s="4"/>
+      <c r="D430" s="4"/>
+      <c r="E430" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A431" s="4"/>
+      <c r="B431" s="4"/>
+      <c r="C431" s="4"/>
+      <c r="D431" s="4"/>
+      <c r="E431" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A432" s="4"/>
+      <c r="B432" s="4"/>
+      <c r="C432" s="4"/>
+      <c r="D432" s="4"/>
+      <c r="E432" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A433" s="4"/>
+      <c r="B433" s="4"/>
+      <c r="C433" s="4"/>
+      <c r="D433" s="4"/>
+      <c r="E433" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A434" s="4"/>
+      <c r="B434" s="4"/>
+      <c r="C434" s="4"/>
+      <c r="D434" s="4"/>
+      <c r="E434" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A435" s="4"/>
+      <c r="B435" s="4"/>
+      <c r="C435" s="4"/>
+      <c r="D435" s="4"/>
+      <c r="E435" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A436" s="4"/>
+      <c r="B436" s="4"/>
+      <c r="C436" s="4"/>
+      <c r="D436" s="4"/>
+      <c r="E436" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A437" s="4"/>
+      <c r="B437" s="4"/>
+      <c r="C437" s="4"/>
+      <c r="D437" s="4"/>
+      <c r="E437" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A438" s="4"/>
+      <c r="B438" s="4"/>
+      <c r="C438" s="4"/>
+      <c r="D438" s="4"/>
+      <c r="E438" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A439" s="4"/>
+      <c r="B439" s="4"/>
+      <c r="C439" s="4"/>
+      <c r="D439" s="4"/>
+      <c r="E439" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A440" s="4"/>
+      <c r="B440" s="4"/>
+      <c r="C440" s="4"/>
+      <c r="D440" s="4"/>
+      <c r="E440" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A441" s="4"/>
+      <c r="B441" s="4"/>
+      <c r="C441" s="4"/>
+      <c r="D441" s="4"/>
+      <c r="E441" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A442" s="4"/>
+      <c r="B442" s="4"/>
+      <c r="C442" s="4"/>
+      <c r="D442" s="4"/>
+      <c r="E442" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A443" s="4"/>
+      <c r="B443" s="4"/>
+      <c r="C443" s="4"/>
+      <c r="D443" s="4"/>
+      <c r="E443" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A444" s="4"/>
+      <c r="B444" s="4"/>
+      <c r="C444" s="4"/>
+      <c r="D444" s="4"/>
+      <c r="E444" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A445" s="4"/>
+      <c r="B445" s="4"/>
+      <c r="C445" s="4"/>
+      <c r="D445" s="4"/>
+      <c r="E445" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A446" s="4"/>
+      <c r="B446" s="4"/>
+      <c r="C446" s="4"/>
+      <c r="D446" s="4"/>
+      <c r="E446" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A447" s="4"/>
+      <c r="B447" s="4"/>
+      <c r="C447" s="4"/>
+      <c r="D447" s="4"/>
+      <c r="E447" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A448" s="4"/>
+      <c r="B448" s="4"/>
+      <c r="C448" s="4"/>
+      <c r="D448" s="4"/>
+      <c r="E448" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A449" s="4"/>
+      <c r="B449" s="4"/>
+      <c r="C449" s="4"/>
+      <c r="D449" s="4"/>
+      <c r="E449" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A450" s="4"/>
+      <c r="B450" s="4"/>
+      <c r="C450" s="4"/>
+      <c r="D450" s="4"/>
+      <c r="E450" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A451" s="4"/>
+      <c r="B451" s="4"/>
+      <c r="C451" s="4"/>
+      <c r="D451" s="4"/>
+      <c r="E451" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A452" s="4"/>
+      <c r="B452" s="4"/>
+      <c r="C452" s="4"/>
+      <c r="D452" s="4"/>
+      <c r="E452" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A453" s="4"/>
+      <c r="B453" s="4"/>
+      <c r="C453" s="4"/>
+      <c r="D453" s="4"/>
+      <c r="E453" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="C247:C366"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C139:C141"/>
+  <mergeCells count="111">
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D36:D43"/>
     <mergeCell ref="D162:D168"/>
-    <mergeCell ref="D121:D123"/>
-    <mergeCell ref="B2:B120"/>
-    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C121:C127"/>
+    <mergeCell ref="D121:D127"/>
+    <mergeCell ref="C140:C142"/>
     <mergeCell ref="C86:C94"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="B247:B366"/>
+    <mergeCell ref="A2:A255"/>
+    <mergeCell ref="D267:D281"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C58:C64"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C95:C104"/>
+    <mergeCell ref="D333:D453"/>
     <mergeCell ref="C162:C168"/>
     <mergeCell ref="C65:C71"/>
-    <mergeCell ref="C228:C234"/>
-    <mergeCell ref="D247:D366"/>
+    <mergeCell ref="C225:C234"/>
+    <mergeCell ref="D256:D266"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D235:D241"/>
-    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="D140:D142"/>
     <mergeCell ref="D176:D182"/>
     <mergeCell ref="C235:C241"/>
-    <mergeCell ref="A2:A241"/>
-    <mergeCell ref="C218:C227"/>
-    <mergeCell ref="D228:D234"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C197:C203"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D79:D85"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="A247:A366"/>
+    <mergeCell ref="C242:C248"/>
+    <mergeCell ref="B128:B255"/>
+    <mergeCell ref="C256:C266"/>
+    <mergeCell ref="A318:A332"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="C333:C453"/>
+    <mergeCell ref="A256:A317"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="C267:C281"/>
+    <mergeCell ref="D318:D329"/>
     <mergeCell ref="C112:C120"/>
-    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C146:C148"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D65:D71"/>
     <mergeCell ref="D112:D120"/>
@@ -7465,60 +9013,74 @@
     <mergeCell ref="C44:C50"/>
     <mergeCell ref="D155:D161"/>
     <mergeCell ref="C79:C85"/>
-    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="D330:D332"/>
+    <mergeCell ref="C128:C130"/>
     <mergeCell ref="C169:C175"/>
-    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="C330:C332"/>
+    <mergeCell ref="D249:D255"/>
     <mergeCell ref="D95:D104"/>
-    <mergeCell ref="B121:B241"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="D137:D139"/>
+    <mergeCell ref="A333:A453"/>
+    <mergeCell ref="B333:B453"/>
+    <mergeCell ref="B2:B127"/>
+    <mergeCell ref="C155:C161"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="D204:D210"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D242:D248"/>
     <mergeCell ref="C105:C111"/>
     <mergeCell ref="C190:C196"/>
     <mergeCell ref="D72:D78"/>
     <mergeCell ref="D169:D175"/>
     <mergeCell ref="D86:D94"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="D105:D111"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="D148:D154"/>
-    <mergeCell ref="C204:C210"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="C148:C154"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="C155:C161"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="D204:D210"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="C318:C329"/>
+    <mergeCell ref="D152:D154"/>
     <mergeCell ref="D44:D50"/>
     <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C204:C210"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="B318:B332"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="D211:D217"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D149:D151"/>
+    <mergeCell ref="D190:D196"/>
+    <mergeCell ref="D197:D203"/>
+    <mergeCell ref="C72:C78"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C176:C182"/>
-    <mergeCell ref="A242:A244"/>
-    <mergeCell ref="C183:C189"/>
-    <mergeCell ref="D218:D227"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="D211:D217"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="D190:D196"/>
-    <mergeCell ref="D197:D203"/>
-    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="B256:B317"/>
+    <mergeCell ref="C218:C224"/>
+    <mergeCell ref="D225:D234"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C197:C203"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D79:D85"/>
+    <mergeCell ref="D146:D148"/>
     <mergeCell ref="D51:D57"/>
     <mergeCell ref="D58:D64"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="D29:D35"/>
+    <mergeCell ref="C176:C182"/>
+    <mergeCell ref="C249:C255"/>
+    <mergeCell ref="D282:D317"/>
+    <mergeCell ref="C183:C189"/>
+    <mergeCell ref="D218:D224"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="C282:C317"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>